--- a/doors-detector/results/house15_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house15_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7341070966966458</v>
+        <v>0.7414256231741214</v>
       </c>
       <c r="F5" t="n">
         <v>1070</v>
       </c>
       <c r="G5" t="n">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="H5" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3887457757936948</v>
+        <v>0.3750793845766358</v>
       </c>
       <c r="F6" t="n">
         <v>59</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5188707848446684</v>
+        <v>0.5549843770165687</v>
       </c>
       <c r="F7" t="n">
         <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H7" t="n">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7457334688905369</v>
+        <v>0.708123088211056</v>
       </c>
       <c r="F8" t="n">
         <v>1070</v>
       </c>
       <c r="G8" t="n">
-        <v>877</v>
+        <v>845</v>
       </c>
       <c r="H8" t="n">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3774789789049584</v>
+        <v>0.3743423574779539</v>
       </c>
       <c r="F9" t="n">
         <v>59</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5954369443084661</v>
+        <v>0.610447548298953</v>
       </c>
       <c r="F10" t="n">
         <v>240</v>
       </c>
       <c r="G10" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H10" t="n">
-        <v>328</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7323203132832291</v>
+        <v>0.7377917260478184</v>
       </c>
       <c r="F11" t="n">
         <v>1070</v>
       </c>
       <c r="G11" t="n">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="H11" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.4013998687930766</v>
+        <v>0.4556163568163629</v>
       </c>
       <c r="F12" t="n">
         <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5957815494777071</v>
+        <v>0.590587386659078</v>
       </c>
       <c r="F13" t="n">
         <v>240</v>
       </c>
       <c r="G13" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H13" t="n">
-        <v>370</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.762596051030319</v>
+        <v>0.772151540581547</v>
       </c>
       <c r="F14" t="n">
         <v>1070</v>
       </c>
       <c r="G14" t="n">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="H14" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.4641341514853762</v>
+        <v>0.5211162793372393</v>
       </c>
       <c r="F15" t="n">
         <v>59</v>
       </c>
       <c r="G15" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H15" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5978939565452627</v>
+        <v>0.5994557212601798</v>
       </c>
       <c r="F16" t="n">
         <v>240</v>
       </c>
       <c r="G16" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H16" t="n">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7502743612398803</v>
+        <v>0.7427646019537544</v>
       </c>
       <c r="F17" t="n">
         <v>1070</v>
       </c>
       <c r="G17" t="n">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="H17" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5654687004638715</v>
+        <v>0.5229153333373115</v>
       </c>
       <c r="F18" t="n">
         <v>59</v>
       </c>
       <c r="G18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6145938800618596</v>
+        <v>0.6092205802317563</v>
       </c>
       <c r="F19" t="n">
         <v>240</v>
       </c>
       <c r="G19" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H19" t="n">
-        <v>321</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7797378639443158</v>
+        <v>0.7484293785681829</v>
       </c>
       <c r="F20" t="n">
         <v>1070</v>
       </c>
       <c r="G20" t="n">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="H20" t="n">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.6155507103085486</v>
+        <v>0.552439761006044</v>
       </c>
       <c r="F21" t="n">
         <v>59</v>
       </c>
       <c r="G21" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6220164074493875</v>
+        <v>0.6148827726221673</v>
       </c>
       <c r="F22" t="n">
         <v>240</v>
       </c>
       <c r="G22" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H22" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7346150983033238</v>
+        <v>0.7821502800872253</v>
       </c>
       <c r="F23" t="n">
         <v>1070</v>
       </c>
       <c r="G23" t="n">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="H23" t="n">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -1199,16 +1199,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.57936217214065</v>
+        <v>0.6154359506615861</v>
       </c>
       <c r="F24" t="n">
         <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H24" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6547523639839375</v>
+        <v>0.6236571435249845</v>
       </c>
       <c r="F25" t="n">
         <v>240</v>
       </c>
       <c r="G25" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H25" t="n">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
